--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl10-Sdc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.76479233333333</v>
+        <v>15.428109</v>
       </c>
       <c r="H2">
-        <v>56.294377</v>
+        <v>46.284327</v>
       </c>
       <c r="I2">
-        <v>0.09818846546758657</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="J2">
-        <v>0.09818846546758656</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N2">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O2">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P2">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q2">
-        <v>56.3251950439421</v>
+        <v>8.290690359281001</v>
       </c>
       <c r="R2">
-        <v>506.9267553954789</v>
+        <v>74.61621323352901</v>
       </c>
       <c r="S2">
-        <v>0.005076143352007487</v>
+        <v>0.0007857348089613136</v>
       </c>
       <c r="T2">
-        <v>0.005076143352007487</v>
+        <v>0.0007857348089613134</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.76479233333333</v>
+        <v>15.428109</v>
       </c>
       <c r="H3">
-        <v>56.294377</v>
+        <v>46.284327</v>
       </c>
       <c r="I3">
-        <v>0.09818846546758657</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="J3">
-        <v>0.09818846546758656</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>33.162845</v>
       </c>
       <c r="O3">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P3">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q3">
-        <v>207.4312998691739</v>
+        <v>170.546662470035</v>
       </c>
       <c r="R3">
-        <v>1866.881698822565</v>
+        <v>1534.919962230315</v>
       </c>
       <c r="S3">
-        <v>0.01869413879539554</v>
+        <v>0.01616324376472118</v>
       </c>
       <c r="T3">
-        <v>0.01869413879539554</v>
+        <v>0.01616324376472117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.76479233333333</v>
+        <v>15.428109</v>
       </c>
       <c r="H4">
-        <v>56.294377</v>
+        <v>46.284327</v>
       </c>
       <c r="I4">
-        <v>0.09818846546758657</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="J4">
-        <v>0.09818846546758656</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N4">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P4">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q4">
-        <v>516.2410979152834</v>
+        <v>471.5014939145821</v>
       </c>
       <c r="R4">
-        <v>4646.169881237551</v>
+        <v>4243.513445231239</v>
       </c>
       <c r="S4">
-        <v>0.0465247180266543</v>
+        <v>0.04468567998456488</v>
       </c>
       <c r="T4">
-        <v>0.04652471802665429</v>
+        <v>0.04468567998456487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.76479233333333</v>
+        <v>15.428109</v>
       </c>
       <c r="H5">
-        <v>56.294377</v>
+        <v>46.284327</v>
       </c>
       <c r="I5">
-        <v>0.09818846546758657</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="J5">
-        <v>0.09818846546758656</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N5">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P5">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q5">
-        <v>309.5075856138168</v>
+        <v>459.10714769753</v>
       </c>
       <c r="R5">
-        <v>2785.568270524352</v>
+        <v>4131.96432927777</v>
       </c>
       <c r="S5">
-        <v>0.02789346529352925</v>
+        <v>0.04351102879931662</v>
       </c>
       <c r="T5">
-        <v>0.02789346529352925</v>
+        <v>0.04351102879931661</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>216.35395</v>
       </c>
       <c r="I6">
-        <v>0.3773638413007209</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="J6">
-        <v>0.3773638413007209</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N6">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O6">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P6">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q6">
-        <v>216.4723917679611</v>
+        <v>38.75444937240555</v>
       </c>
       <c r="R6">
-        <v>1948.25152591165</v>
+        <v>348.79004435165</v>
       </c>
       <c r="S6">
-        <v>0.0195089407415071</v>
+        <v>0.003672881093664288</v>
       </c>
       <c r="T6">
-        <v>0.0195089407415071</v>
+        <v>0.003672881093664288</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>216.35395</v>
       </c>
       <c r="I7">
-        <v>0.3773638413007209</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="J7">
-        <v>0.3773638413007209</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33.162845</v>
       </c>
       <c r="O7">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P7">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q7">
         <v>797.2125009986389</v>
@@ -883,10 +883,10 @@
         <v>7174.912508987751</v>
       </c>
       <c r="S7">
-        <v>0.07184644338868991</v>
+        <v>0.07555433685597927</v>
       </c>
       <c r="T7">
-        <v>0.07184644338868991</v>
+        <v>0.07555433685597926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>216.35395</v>
       </c>
       <c r="I8">
-        <v>0.3773638413007209</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="J8">
-        <v>0.3773638413007209</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N8">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P8">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q8">
-        <v>1984.048969692094</v>
+        <v>2204.0119680107</v>
       </c>
       <c r="R8">
-        <v>17856.44072722885</v>
+        <v>19836.1077120963</v>
       </c>
       <c r="S8">
-        <v>0.1788066065231144</v>
+        <v>0.2088811483225531</v>
       </c>
       <c r="T8">
-        <v>0.1788066065231144</v>
+        <v>0.2088811483225531</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>216.35395</v>
       </c>
       <c r="I9">
-        <v>0.3773638413007209</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="J9">
-        <v>0.3773638413007209</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N9">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P9">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q9">
-        <v>1189.518248021689</v>
+        <v>2146.075168762722</v>
       </c>
       <c r="R9">
-        <v>10705.6642321952</v>
+        <v>19314.6765188645</v>
       </c>
       <c r="S9">
-        <v>0.1072018506474095</v>
+        <v>0.2033902955809621</v>
       </c>
       <c r="T9">
-        <v>0.1072018506474095</v>
+        <v>0.2033902955809621</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.90787</v>
+        <v>17.753286</v>
       </c>
       <c r="H10">
-        <v>50.72361</v>
+        <v>53.25985799999999</v>
       </c>
       <c r="I10">
-        <v>0.08847195216098278</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="J10">
-        <v>0.08847195216098278</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N10">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O10">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P10">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q10">
-        <v>50.75137835849666</v>
+        <v>9.540183899774</v>
       </c>
       <c r="R10">
-        <v>456.7624052264699</v>
+        <v>85.86165509796599</v>
       </c>
       <c r="S10">
-        <v>0.004573819436554391</v>
+        <v>0.0009041532428663526</v>
       </c>
       <c r="T10">
-        <v>0.004573819436554392</v>
+        <v>0.0009041532428663523</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.90787</v>
+        <v>17.753286</v>
       </c>
       <c r="H11">
-        <v>50.72361</v>
+        <v>53.25985799999999</v>
       </c>
       <c r="I11">
-        <v>0.08847195216098278</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="J11">
-        <v>0.08847195216098278</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>33.162845</v>
       </c>
       <c r="O11">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P11">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q11">
-        <v>186.9043573633834</v>
+        <v>196.24982395289</v>
       </c>
       <c r="R11">
-        <v>1682.13921627045</v>
+        <v>1766.24841557601</v>
       </c>
       <c r="S11">
-        <v>0.01684420817985983</v>
+        <v>0.01859921324400882</v>
       </c>
       <c r="T11">
-        <v>0.01684420817985983</v>
+        <v>0.01859921324400881</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.90787</v>
+        <v>17.753286</v>
       </c>
       <c r="H12">
-        <v>50.72361</v>
+        <v>53.25985799999999</v>
       </c>
       <c r="I12">
-        <v>0.08847195216098278</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="J12">
-        <v>0.08847195216098278</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N12">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P12">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q12">
-        <v>465.1550210179366</v>
+        <v>542.561688596628</v>
       </c>
       <c r="R12">
-        <v>4186.39518916143</v>
+        <v>4883.055197369651</v>
       </c>
       <c r="S12">
-        <v>0.04192073486387427</v>
+        <v>0.05142027819938631</v>
       </c>
       <c r="T12">
-        <v>0.04192073486387428</v>
+        <v>0.0514202781993863</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.90787</v>
+        <v>17.753286</v>
       </c>
       <c r="H13">
-        <v>50.72361</v>
+        <v>53.25985799999999</v>
       </c>
       <c r="I13">
-        <v>0.08847195216098278</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="J13">
-        <v>0.08847195216098278</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N13">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P13">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q13">
-        <v>278.8793997083733</v>
+        <v>528.29938508462</v>
       </c>
       <c r="R13">
-        <v>2509.91459737536</v>
+        <v>4754.69446576158</v>
       </c>
       <c r="S13">
-        <v>0.02513318968069428</v>
+        <v>0.05006859482445349</v>
       </c>
       <c r="T13">
-        <v>0.02513318968069428</v>
+        <v>0.05006859482445349</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.31930033333333</v>
+        <v>41.43140433333334</v>
       </c>
       <c r="H14">
-        <v>249.957901</v>
+        <v>124.294213</v>
       </c>
       <c r="I14">
-        <v>0.4359757410707099</v>
+        <v>0.2823634112785623</v>
       </c>
       <c r="J14">
-        <v>0.4359757410707098</v>
+        <v>0.2823634112785622</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.001642333333333</v>
+        <v>0.5373756666666667</v>
       </c>
       <c r="N14">
-        <v>9.004926999999999</v>
+        <v>1.612127</v>
       </c>
       <c r="O14">
-        <v>0.0516979599165158</v>
+        <v>0.007472820128982582</v>
       </c>
       <c r="P14">
-        <v>0.05169795991651582</v>
+        <v>0.007472820128982581</v>
       </c>
       <c r="Q14">
-        <v>250.0947390642474</v>
+        <v>22.26422852456123</v>
       </c>
       <c r="R14">
-        <v>2250.852651578226</v>
+        <v>200.378056721051</v>
       </c>
       <c r="S14">
-        <v>0.02253905638644683</v>
+        <v>0.002110050983490628</v>
       </c>
       <c r="T14">
-        <v>0.02253905638644683</v>
+        <v>0.002110050983490627</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.31930033333333</v>
+        <v>41.43140433333334</v>
       </c>
       <c r="H15">
-        <v>249.957901</v>
+        <v>124.294213</v>
       </c>
       <c r="I15">
-        <v>0.4359757410707099</v>
+        <v>0.2823634112785623</v>
       </c>
       <c r="J15">
-        <v>0.4359757410707098</v>
+        <v>0.2823634112785622</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>33.162845</v>
       </c>
       <c r="O15">
-        <v>0.1903903753498087</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="P15">
-        <v>0.1903903753498088</v>
+        <v>0.1537223653287423</v>
       </c>
       <c r="Q15">
-        <v>921.0350141542607</v>
+        <v>457.9944133462207</v>
       </c>
       <c r="R15">
-        <v>8289.315127388345</v>
+        <v>4121.949720115986</v>
       </c>
       <c r="S15">
-        <v>0.08300558498586348</v>
+        <v>0.04340557146403308</v>
       </c>
       <c r="T15">
-        <v>0.08300558498586348</v>
+        <v>0.04340557146403306</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.31930033333333</v>
+        <v>41.43140433333334</v>
       </c>
       <c r="H16">
-        <v>249.957901</v>
+        <v>124.294213</v>
       </c>
       <c r="I16">
-        <v>0.4359757410707099</v>
+        <v>0.2823634112785623</v>
       </c>
       <c r="J16">
-        <v>0.4359757410707098</v>
+        <v>0.2823634112785622</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>27.51115433333333</v>
+        <v>30.561198</v>
       </c>
       <c r="N16">
-        <v>82.533463</v>
+        <v>91.683594</v>
       </c>
       <c r="O16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167162</v>
       </c>
       <c r="P16">
-        <v>0.4738307886277414</v>
+        <v>0.4249882340167161</v>
       </c>
       <c r="Q16">
-        <v>2292.210130415685</v>
+        <v>1266.193351249058</v>
       </c>
       <c r="R16">
-        <v>20629.89117374116</v>
+        <v>11395.74016124152</v>
       </c>
       <c r="S16">
-        <v>0.2065787292140984</v>
+        <v>0.1200011275102119</v>
       </c>
       <c r="T16">
-        <v>0.2065787292140984</v>
+        <v>0.1200011275102119</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>83.31930033333333</v>
+        <v>41.43140433333334</v>
       </c>
       <c r="H17">
-        <v>249.957901</v>
+        <v>124.294213</v>
       </c>
       <c r="I17">
-        <v>0.4359757410707099</v>
+        <v>0.2823634112785623</v>
       </c>
       <c r="J17">
-        <v>0.4359757410707098</v>
+        <v>0.2823634112785622</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.49405866666666</v>
+        <v>29.75783666666667</v>
       </c>
       <c r="N17">
-        <v>49.482176</v>
+        <v>89.27351</v>
       </c>
       <c r="O17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="P17">
-        <v>0.2840808761059341</v>
+        <v>0.4138165805255589</v>
       </c>
       <c r="Q17">
-        <v>1374.273427763619</v>
+        <v>1232.908963021959</v>
       </c>
       <c r="R17">
-        <v>12368.46084987257</v>
+        <v>11096.18066719763</v>
       </c>
       <c r="S17">
-        <v>0.1238523704843011</v>
+        <v>0.1168466613208267</v>
       </c>
       <c r="T17">
-        <v>0.1238523704843011</v>
+        <v>0.1168466613208267</v>
       </c>
     </row>
   </sheetData>
